--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348515.508350465</v>
+        <v>1322078.953040516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>24.27495369837627</v>
       </c>
       <c r="H2" t="n">
         <v>205.5178444382804</v>
@@ -680,7 +680,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.03808181848311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.211010870930394</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>205.5178444382804</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.9129409668012</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>205.5178444382804</v>
@@ -1148,11 +1148,11 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>85.4688076457952</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1433,7 +1433,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>120.0500723064956</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,7 +1625,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>130.9180362598743</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.8120867680395</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>5.873273618474491</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>113.4538107927976</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>7.462486501116802</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.72704515543269</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.245357950761532</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,40 +2728,40 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,28 +2871,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8731252940988646</v>
+        <v>53.49507230234272</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>29.78216610882018</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>139.0443297585467</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.20665386009138</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,55 +3202,55 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3287,7 +3287,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9.411629820609999</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>65.62171707681784</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,23 +3503,23 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3591,19 +3591,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>39.36334367544671</v>
+        <v>23.81770009755907</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>66.38439726656337</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.1252322629233</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3974,20 +3974,20 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4077,7 +4077,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.22386753860814</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>184.1592934053484</v>
       </c>
     </row>
     <row r="46">
@@ -4174,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E2" t="n">
-        <v>466.1017926944764</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F2" t="n">
-        <v>459.1562919452729</v>
+        <v>456.1491473277262</v>
       </c>
       <c r="G2" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
         <v>16.44142755506243</v>
@@ -4516,22 +4516,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C5" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4571,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E8" t="n">
         <v>639.2227743377304</v>
@@ -4796,7 +4796,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4811,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4844,10 +4844,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4893,37 +4893,37 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>634.5697193708606</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V9" t="n">
-        <v>639.976906990516</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
         <v>17.19556020784815</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5072,19 +5072,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5142,25 +5142,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
         <v>16.44142755506243</v>
@@ -5264,13 +5264,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5288,10 +5288,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,13 +5361,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5385,22 +5385,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="H17" t="n">
         <v>243.9530410142718</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>848.0853506944347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>848.0853506944347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>848.0853506944347</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>612.9332424626921</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>369.484465818592</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>369.484465818592</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5695,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>856.9550264489012</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="22">
@@ -5932,22 +5932,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>338.3038493798764</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>956.519290357993</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>754.3326957167591</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>754.3326957167591</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>754.3326957167591</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>510.883919072659</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6175,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
         <v>829.5248650203655</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>853.5488806587123</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>610.1001040146123</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>402.2486038090794</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.216849647356</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C30" t="n">
-        <v>111.216849647356</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D30" t="n">
-        <v>111.216849647356</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E30" t="n">
-        <v>111.216849647356</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F30" t="n">
-        <v>111.216849647356</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G30" t="n">
-        <v>111.216849647356</v>
+        <v>73.31656967823568</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>279.432186667424</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>279.432186667424</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.0360370837871</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>274.0360370837871</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X32" t="n">
-        <v>274.0360370837871</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0360370837871</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.0338015341832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>895.1615455509479</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>895.1615455509479</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>895.1615455509479</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>895.1615455509479</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>660.0094373192052</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>660.0094373192052</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X33" t="n">
-        <v>660.0094373192052</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y33" t="n">
-        <v>452.2491385542513</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.203140025706</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>314.750110744579</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>489.203140025706</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7120,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>655.0361258579891</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C39" t="n">
-        <v>480.5830965768621</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="D39" t="n">
-        <v>331.6486869156108</v>
+        <v>203.3310136952813</v>
       </c>
       <c r="E39" t="n">
-        <v>172.4112319101553</v>
+        <v>44.09355868982578</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X39" t="n">
-        <v>655.0361258579891</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.0361258579891</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7363,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>260.349255258228</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>121.6184298408435</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7527,10 +7527,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X42" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X42" t="n">
-        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
         <v>406.8838132313431</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,13 +7649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7676,16 +7676,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
         <v>431.628992076841</v>
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>358.8410177077111</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C45" t="n">
-        <v>358.8410177077111</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D45" t="n">
-        <v>358.8410177077111</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E45" t="n">
-        <v>358.8410177077111</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F45" t="n">
-        <v>358.8410177077111</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G45" t="n">
-        <v>220.1101922903266</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>527.0563547277791</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>527.0563547277791</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>527.0563547277791</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>527.0563547277791</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>527.0563547277791</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="46">
@@ -7822,19 +7822,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8541,7 +8541,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9726,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10917,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11154,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23321,7 +23321,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972316</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,7 +23513,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,19 +23625,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>208.5567658558928</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23859,25 +23859,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>56.87108433579836</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,10 +23975,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>348.126654707812</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,16 +24048,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8098974853633</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24254,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>23.88970637041301</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,10 +24333,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>164.220684602721</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,25 +24522,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>54.71802040920606</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>223.5552291986637</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,28 +24759,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.3623189423976</v>
+        <v>58.74037193415374</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>309.6926360069469</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>27.48885389132067</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,7 +25014,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.95118029255175</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25175,7 +25175,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>102.8238144158865</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>186.0732660841018</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25360,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,22 +25391,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4597780394191</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25479,19 +25479,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>105.7058687179372</v>
+        <v>121.2515122958248</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>100.148786383304</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>8.110211973573186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361756</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.7175145423667</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>21.52340237195594</v>
       </c>
     </row>
     <row r="46">
@@ -26062,13 +26062,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370832.486646182</v>
+        <v>370832.4866461821</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,7 +26326,7 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26341,10 +26341,10 @@
         <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="D4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96671.92633630082</v>
+        <v>93584.78641767305</v>
       </c>
       <c r="C6" t="n">
-        <v>165545.6829179907</v>
+        <v>162458.5429993629</v>
       </c>
       <c r="D6" t="n">
-        <v>165545.6829179909</v>
+        <v>162458.5429993629</v>
       </c>
       <c r="E6" t="n">
-        <v>171757.1031939263</v>
+        <v>168669.9632752982</v>
       </c>
       <c r="F6" t="n">
-        <v>171757.1031939263</v>
+        <v>168669.9632752983</v>
       </c>
       <c r="G6" t="n">
-        <v>169657.2777268592</v>
+        <v>166403.4392852559</v>
       </c>
       <c r="H6" t="n">
-        <v>179386.3207010263</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="I6" t="n">
-        <v>179386.3207010263</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="J6" t="n">
-        <v>125613.8098108169</v>
+        <v>122359.9713692135</v>
       </c>
       <c r="K6" t="n">
-        <v>179386.3207010263</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="L6" t="n">
-        <v>179386.3207010264</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="M6" t="n">
-        <v>179386.3207010264</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="N6" t="n">
-        <v>179386.3207010263</v>
+        <v>176132.4822594229</v>
       </c>
       <c r="O6" t="n">
-        <v>171757.1031939263</v>
+        <v>168669.9632752983</v>
       </c>
       <c r="P6" t="n">
-        <v>171757.1031939263</v>
+        <v>168669.9632752983</v>
       </c>
     </row>
   </sheetData>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>235.0383253024834</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.0277838167588</v>
       </c>
       <c r="H2" t="n">
         <v>133.9569576774867</v>
@@ -27400,7 +27400,7 @@
         <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>113.4971061691875</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.6446139588213</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266973</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>97.48006257801998</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.5228307925502</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>201.358201303431</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>2.322503269695247</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>201.358201303431</v>
@@ -27868,10 +27868,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>86.21436345804263</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>52.52706109444571</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -34939,13 +34939,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N8" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N8" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35261,7 +35261,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,10 +36446,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37637,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37874,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322078.953040516</v>
+        <v>1322863.098978544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797657</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G2" t="n">
-        <v>24.27495369837627</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>17.75511771605321</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,10 +794,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>205.5178444382804</v>
@@ -911,13 +913,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1260,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>85.4688076457952</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>80.11569190233639</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>81.13095251577728</v>
       </c>
     </row>
     <row r="13">
@@ -1737,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3732331246961</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>130.9180362598743</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.873273618474491</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>7.462486501116802</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
@@ -2570,55 +2572,55 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.6677505121453</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>53.49507230234272</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>139.0443297585467</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3357,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>41.60546776660162</v>
       </c>
       <c r="H36" t="n">
-        <v>9.411629820609999</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.81770009755907</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>66.38439726656337</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>57.19327783661838</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,14 +3988,14 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>5.211223902333169</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>184.1592934053484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>456.1491473277262</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>287.229983557101</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4410,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="4">
@@ -4474,16 +4476,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E5" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
         <v>224.0352098159517</v>
@@ -4811,7 +4813,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4892,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4908,22 +4910,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>634.5697193708606</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="U9" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="V9" t="n">
+        <v>513.308066045118</v>
+      </c>
+      <c r="W9" t="n">
         <v>432.3831247296267</v>
       </c>
-      <c r="U9" t="n">
-        <v>432.3831247296267</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>224.7893424687375</v>
-      </c>
-      <c r="W9" t="n">
-        <v>224.7893424687375</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
         <v>17.19556020784815</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
         <v>16.44142755506243</v>
@@ -4990,22 +4992,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5072,19 +5074,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V12" t="n">
-        <v>639.2227743377304</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W12" t="n">
-        <v>431.628992076841</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="13">
@@ -5279,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5364,16 +5366,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5385,16 +5387,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U15" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
         <v>16.44142755506243</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>376.1934816808115</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>376.1934816808115</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>649.1947276839472</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C21" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>856.9550264489012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>856.9550264489012</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>856.9550264489012</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>856.9550264489012</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>856.9550264489012</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>856.9550264489012</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>649.1947276839472</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,16 +6022,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V23" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="X23" t="n">
-        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
         <v>233.7108255783361</v>
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>956.519290357993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>754.3326957167591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>754.3326957167591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>754.3326957167591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>761.8705608694022</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6342,13 +6344,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>761.8705608694022</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6485,22 +6487,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
         <v>262.7299197543128</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>694.6722890434539</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="C30" t="n">
-        <v>520.2192597623269</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="D30" t="n">
-        <v>371.2848501010757</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="E30" t="n">
-        <v>212.0473950956202</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="F30" t="n">
-        <v>212.0473950956202</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="G30" t="n">
-        <v>73.31656967823568</v>
+        <v>23.44506234256733</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6573,19 +6575,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.9674160535941</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6898,10 +6900,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C36" t="n">
-        <v>178.4763822127447</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="D36" t="n">
-        <v>29.54197255149339</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="E36" t="n">
-        <v>29.54197255149339</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="F36" t="n">
-        <v>29.54197255149339</v>
+        <v>265.7297655150319</v>
       </c>
       <c r="G36" t="n">
-        <v>29.54197255149339</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>203.3310136952813</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>44.09355868982578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.7184526376595</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7436,22 +7438,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
         <v>16.44142755506243</v>
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>359.4777986593179</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>212.9432406862029</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>74.21241526881838</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7503,7 +7505,7 @@
         <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7679,16 +7681,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0352098159517</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220.8643249431123</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C45" t="n">
-        <v>220.8643249431123</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="Y45" t="n">
-        <v>220.8643249431123</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,13 +8540,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9726,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P42" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>51.78046976818791</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.5517432615271</v>
       </c>
     </row>
     <row r="13">
@@ -23625,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U15" t="n">
-        <v>39.56814895627872</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>208.5567658558928</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23865,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>348.126654707812</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8098974853633</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>164.220684602721</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
@@ -24458,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>54.71802040920606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>90.01494526515904</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>58.74037193415374</v>
+        <v>108.1131641964654</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.48885389132067</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>148.0596218681135</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>95.73804939660901</v>
       </c>
       <c r="H36" t="n">
-        <v>102.8238144158865</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>314.8059134233278</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>121.2515122958248</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25676,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.148786383304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>55.04216639987808</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>166.4719472015047</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.52340237195594</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370832.486646182</v>
+        <v>370832.4866461818</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370832.486646182</v>
+        <v>370832.4866461818</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370832.4866461821</v>
+        <v>370832.486646182</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,7 +26328,7 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239668</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="C4" t="n">
         <v>304569.4782239669</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93584.78641767305</v>
+        <v>93584.78641767291</v>
       </c>
       <c r="C6" t="n">
-        <v>162458.5429993629</v>
+        <v>162458.5429993628</v>
       </c>
       <c r="D6" t="n">
-        <v>162458.5429993629</v>
+        <v>162458.5429993627</v>
       </c>
       <c r="E6" t="n">
         <v>168669.9632752982</v>
       </c>
       <c r="F6" t="n">
-        <v>168669.9632752983</v>
+        <v>168669.9632752982</v>
       </c>
       <c r="G6" t="n">
-        <v>166403.4392852559</v>
+        <v>166403.4392852558</v>
       </c>
       <c r="H6" t="n">
         <v>176132.4822594229</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>241.1586658756091</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>391.0277838167588</v>
-      </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,13 +27426,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27464,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>127.3140946773307</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4971061691875</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>14.95552117266973</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>201.358201303431</v>
@@ -27631,13 +27633,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27865,7 +27867,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>86.21436345804263</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,13 +27994,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>171.5792912585832</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,13 +35260,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36206,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P42" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322863.098978544</v>
+        <v>1253735.733420135</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797657</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6043099.997208606</v>
+        <v>6098793.576864842</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.7173798661024</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.015063725959897</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.75511771605321</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.440468830362</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H5" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.9129409668012</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>90.16066412513263</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243786</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>210.6543024793039</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>181.0201173812374</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>109.1417793750723</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>80.11569190233639</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>108.1960350243786</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.13095251577728</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>14.36319076806752</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>167.4264283642778</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>200.3360962888297</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.9333552767668</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>174.3702863852114</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,67 +2241,67 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>62.86349518004441</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,55 +2727,55 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,17 +2791,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.2527522862421</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.122280040031055</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,70 +3034,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>90.90725545139051</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>167.5873293802472</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3271,67 +3271,67 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>41.60546776660162</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>59.1788893390142</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3666,58 +3666,58 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>57.19327783661838</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>5.211223902333169</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446.4674385625565</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>446.4674385625565</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>446.4674385625565</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>287.229983557101</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>446.4674385625565</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>446.4674385625565</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>446.4674385625565</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>446.4674385625565</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>446.4674385625565</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>187.623944761548</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>187.623944761548</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>79.51782554952828</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>245.4092504478133</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G5" t="n">
-        <v>37.81546818692397</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>127.464600248801</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>872.9857776064619</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>872.9857776064619</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.2794973539806</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.2794973539806</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.2794973539806</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.2794973539806</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>513.308066045118</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>441.0602509429012</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>333.21913046151</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>776.1315374582066</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>540.9794292264639</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>540.9794292264639</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>540.9794292264639</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>333.21913046151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.4461484402802</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.44506234256733</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C30" t="n">
-        <v>23.44506234256733</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D30" t="n">
-        <v>23.44506234256733</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="E30" t="n">
-        <v>23.44506234256733</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>23.44506234256733</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>23.44506234256733</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>191.6603993626354</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y30" t="n">
-        <v>191.6603993626354</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6745,7 +6745,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,10 +6791,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>872.2316449536761</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>872.2316449536761</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U33" t="n">
-        <v>318.0035561858384</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V33" t="n">
-        <v>318.0035561858384</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>318.0035561858384</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>318.0035561858384</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6840,7 +6840,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>414.6641751762832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>414.6641751762832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>265.7297655150319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>265.7297655150319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>265.7297655150319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.32787816303323</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
         <v>31.35113235729608</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>217.7886244255914</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>614.4775954922324</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.7152536647734</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>518.7152536647734</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>518.7152536647734</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>359.4777986593179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>212.9432406862029</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>74.21241526881838</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>518.7152536647734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>518.7152536647734</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>518.7152536647734</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>518.7152536647734</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X42" t="n">
-        <v>518.7152536647734</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.7152536647734</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8288664974407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>165.3758372163137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>715.637985778398</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>715.637985778398</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>508.0442035175087</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>508.0442035175087</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W45" t="n">
-        <v>508.0442035175087</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>508.0442035175087</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.0442035175087</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>290.7443071551351</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.5517432615271</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>211.5781913129073</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23782,10 +23782,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>38.25626741302659</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>8.68397329741569</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>50.77514371154891</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>77.32469677570816</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>137.3012335147772</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.027707413939339</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.01494526515904</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.392328169158873</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>108.1131641964654</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834322</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25004,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.250578701252621</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>58.35405270072761</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>95.73804939660901</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,19 +25393,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>314.8059134233278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>98.46619111638674</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T41" t="n">
-        <v>42.07573218289394</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>110.3628746391217</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>55.04216639987808</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>166.4719472015047</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,10 +26040,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>939549.7836149047</v>
+        <v>935878.3178547812</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>939549.7836149047</v>
+        <v>940407.1482405961</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>939549.7836149047</v>
+        <v>940407.1482405961</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370832.486646182</v>
+        <v>390596.6703387749</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370832.4866461818</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.6703387749</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390596.670338775</v>
+        <v>390596.6703387751</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390596.6703387751</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370832.4866461818</v>
+        <v>390596.670338775</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370832.486646182</v>
+        <v>390596.670338775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26340,7 +26340,7 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
@@ -26352,10 +26352,10 @@
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239669</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>304569.4782239669</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>304569.4782239668</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="I4" t="n">
         <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="K4" t="n">
         <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="M4" t="n">
         <v>16914.68964098084</v>
@@ -26456,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93584.78641767291</v>
+        <v>116471.790758275</v>
       </c>
       <c r="C6" t="n">
-        <v>162458.5429993628</v>
+        <v>108433.2979393071</v>
       </c>
       <c r="D6" t="n">
-        <v>162458.5429993627</v>
+        <v>169009.6201259752</v>
       </c>
       <c r="E6" t="n">
-        <v>168669.9632752982</v>
+        <v>163914.4716393824</v>
       </c>
       <c r="F6" t="n">
-        <v>168669.9632752982</v>
+        <v>163914.4716393825</v>
       </c>
       <c r="G6" t="n">
-        <v>166403.4392852558</v>
+        <v>163914.4716393824</v>
       </c>
       <c r="H6" t="n">
-        <v>176132.4822594229</v>
+        <v>163914.4716393825</v>
       </c>
       <c r="I6" t="n">
-        <v>176132.4822594229</v>
+        <v>163914.4716393824</v>
       </c>
       <c r="J6" t="n">
-        <v>122359.9713692135</v>
+        <v>149913.2394991032</v>
       </c>
       <c r="K6" t="n">
-        <v>176132.4822594229</v>
+        <v>115657.5187057499</v>
       </c>
       <c r="L6" t="n">
-        <v>176132.4822594229</v>
+        <v>163914.4716393825</v>
       </c>
       <c r="M6" t="n">
-        <v>176132.4822594229</v>
+        <v>163914.4716393824</v>
       </c>
       <c r="N6" t="n">
-        <v>176132.4822594229</v>
+        <v>163914.4716393825</v>
       </c>
       <c r="O6" t="n">
-        <v>168669.9632752983</v>
+        <v>163914.4716393825</v>
       </c>
       <c r="P6" t="n">
-        <v>168669.9632752983</v>
+        <v>163914.4716393824</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.1586658756091</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>207.460825844446</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,22 +27460,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>127.3140946773307</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27557,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>62.72157442133238</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H5" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,25 +27700,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>2.322503269695247</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.997170027510506</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408017</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>144.0287391413791</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>35.92743301831159</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>171.5792912585832</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755871</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0873001866707</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
